--- a/xlsx/經濟_intext.xlsx
+++ b/xlsx/經濟_intext.xlsx
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_經濟</t>
+    <t>体育运动_体育运动_技术_經濟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
